--- a/xlsx/华沙条约组织_intext.xlsx
+++ b/xlsx/华沙条约组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
   <si>
     <t>华沙条约组织</t>
   </si>
@@ -29,7 +29,7 @@
     <t>波兰人民共和国</t>
   </si>
   <si>
-    <t>政策_政策_美國_华沙条约组织</t>
+    <t>政策_政策_美国_华沙条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BE%B7</t>
   </si>
   <si>
-    <t>東德</t>
+    <t>东德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD%E5%8F%8D%E6%8A%97%E8%BB%8D</t>
   </si>
   <si>
-    <t>烏克蘭反抗軍</t>
+    <t>乌克兰反抗军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Goryani</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E4%B8%83%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>七七憲章</t>
+    <t>七七宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E7%BB%93%E5%B7%A5%E4%BC%9A</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/4%E6%9C%889%E6%97%A5%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>4月9日悲劇</t>
+    <t>4月9日悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B8%80%E6%9C%88%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
   </si>
   <si>
-    <t>黑色一月大屠殺</t>
+    <t>黑色一月大屠杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97%E5%85%84%E5%BC%9F</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%84%E5%85%A5%E4%BE%B5%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
   </si>
   <si>
-    <t>華約入侵捷克斯洛伐克</t>
+    <t>华约入侵捷克斯洛伐克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1968_Red_Square_demonstration</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1980%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E6%94%BF%E6%AC%8A%E7%9A%84%E5%9E%AE%E5%8F%B0</t>
   </si>
   <si>
-    <t>阿爾巴尼亞共產主義政權的垮台</t>
+    <t>阿尔巴尼亚共产主义政权的垮台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>Template talk-東方集團</t>
+    <t>Template talk-东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
@@ -479,13 +479,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志民主共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B2%99%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>華沙公約</t>
+    <t>华沙公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%85%B1%E4%B8%AD%E5%A4%AE%E7%AC%AC%E4%B8%80%E6%9B%B8%E8%A8%98</t>
   </si>
   <si>
-    <t>蘇共中央第一書記</t>
+    <t>苏共中央第一书记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%B2%81%E6%99%93%E5%A4%AB</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -569,37 +566,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>保加利亞人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>保加利亞語</t>
+    <t>保加利亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -611,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈牙利語</t>
+    <t>匈牙利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>波蘭語</t>
+    <t>波兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -629,19 +620,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>捷克語</t>
+    <t>捷克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯洛伐克語</t>
+    <t>斯洛伐克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語</t>
+    <t>阿尔巴尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -653,19 +644,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古人民共和國</t>
+    <t>蒙古人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>蒙古語</t>
+    <t>蒙古语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>老撾語</t>
+    <t>老挝语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>兩德統一</t>
+    <t>两德统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
@@ -737,37 +728,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>蘇聯共產黨</t>
+    <t>苏联共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E8%87%AA%E8%A1%9B%E6%AC%8A</t>
   </si>
   <si>
-    <t>集體自衛權</t>
+    <t>集体自卫权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E6%A2%9D%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>東南亞條約組織</t>
+    <t>东南亚条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -791,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E8%BF%9B%E6%AD%A5%E8%81%94%E7%9B%9F</t>
@@ -803,13 +794,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>中部公約組織</t>
+    <t>中部公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自由民主聯盟</t>
+    <t>世界自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
@@ -833,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E7%BA%B3%E7%B2%B9%E5%8C%96</t>
@@ -875,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%BE%B7%E6%94%BF%E7%AD%96%E7%9A%84%E9%87%8D%E8%BF%B0</t>
   </si>
   <si>
-    <t>對德政策的重述</t>
+    <t>对德政策的重述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -899,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%97%9C%E4%BF%82%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>亞洲關係會議</t>
+    <t>亚洲关系会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%9C%88%E4%BA%8B%E4%BB%B6</t>
@@ -917,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -935,19 +926,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>莫洛托夫計劃</t>
+    <t>莫洛托夫计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B9%95</t>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A3%AE%E5%A0%A1%E5%A4%AB%E5%A9%A6</t>
   </si>
   <si>
-    <t>羅森堡夫婦</t>
+    <t>罗森堡夫妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/1953%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1953年伊朗政變</t>
+    <t>1953年伊朗政变</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1954_Guatemalan_coup_d%27%C3%A9tat</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geneva_Summit_(1955)</t>
@@ -1007,9 +998,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波茲南事件</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bricker_Amendment</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%80%E4%B9%9D%E9%9D%A9%E5%91%BD</t>
@@ -1091,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4U-2%E6%93%8A%E5%A2%9C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1960年U-2擊墜事件</t>
+    <t>1960年U-2击坠事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>東方一號</t>
+    <t>东方一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E6%B9%BE%E4%BA%8B%E4%BB%B6</t>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -1121,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E5%88%86%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%A9%A6%E9%A9%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>部分禁止核試驗條約</t>
+    <t>部分禁止核试验条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B_(1965%E5%B9%B4%E8%87%B31966%E5%B9%B4)</t>
   </si>
   <si>
-    <t>美國佔領多明尼加共和國 (1965年至1966年)</t>
+    <t>美国佔领多明尼加共和国 (1965年至1966年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_African_Border_War</t>
@@ -1169,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>寮國內戰</t>
+    <t>寮国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentine_Revolution</t>
@@ -1181,13 +1169,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>希臘軍政府時期</t>
+    <t>希腊军政府时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1211,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96%E5%BE%A9%E8%88%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華文化復興運動</t>
+    <t>中华文化复兴运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E6%88%98%E4%BA%89</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8511%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅11號</t>
+    <t>阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%93%E5%92%8C%E6%94%BF%E7%AD%96</t>
@@ -1295,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B9%9D%E6%9C%88</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%B0%BC%E5%85%8B%E6%9D%BE%E8%AE%BF%E5%8D%8E</t>
@@ -1337,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>贖罪日戰爭</t>
+    <t>赎罪日战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Thai_popular_uprising</t>
@@ -1373,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E5%8F%A2%E6%9E%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅德西亞叢林戰爭</t>
+    <t>罗德西亚丛林战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%86%85%E6%88%98</t>
@@ -1385,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>莫三比克內戰</t>
+    <t>莫三比克内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%97%A8%E5%BA%97%E4%BA%8B%E4%BB%B6</t>
@@ -1397,25 +1385,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%A0%E7%99%BB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>歐加登戰爭</t>
+    <t>欧加登战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>衣索比亞內戰</t>
+    <t>衣索比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>柬越戰爭</t>
+    <t>柬越战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%AD%E8%B6%8A%E6%88%98%E4%BA%89</t>
@@ -1433,19 +1421,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E9%B7%B9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>兀鷹行動</t>
+    <t>兀鹰行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%AF%E9%AB%92%E6%88%B0%E7%88%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
   </si>
   <si>
-    <t>骯髒戰爭 (阿根廷)</t>
+    <t>肮脏战争 (阿根廷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -1463,13 +1451,13 @@
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%8D%97%E9%BB%8E%E5%B7%B4%E5%AB%A9%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>1978年南黎巴嫩衝突</t>
+    <t>1978年南黎巴嫩冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89_(1979%E5%B9%B4)</t>
@@ -1487,7 +1475,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭群島戰爭</t>
+    <t>福克兰群岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1517,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B7%A5%E8%81%AF</t>
   </si>
   <si>
-    <t>團結工聯</t>
+    <t>团结工联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
@@ -1535,13 +1523,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA007%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>大韓航空007號班機空難</t>
+    <t>大韩航空007号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4%E5%84%AA%E7%A7%80%E5%B0%84%E6%89%8B%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>1983年優秀射手演習</t>
+    <t>1983年优秀射手演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E8%AE%A1%E5%88%92</t>
@@ -1553,13 +1541,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E6%96%B0%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>革新開放</t>
+    <t>革新开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8A%9B%E9%87%8F%E9%9D%A9%E5%91%BD_(1986%E5%B9%B4)</t>
@@ -1577,19 +1565,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%88%AA%E7%A9%BA655%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>伊朗航空655號班機空難</t>
+    <t>伊朗航空655号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8888%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>8888民主運動</t>
+    <t>8888民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E6%99%BA%E5%88%A9%E5%85%AC%E6%8A%95</t>
@@ -1613,19 +1601,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>波羅的海之路</t>
+    <t>波罗的海之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1989年羅馬尼亞革命</t>
+    <t>1989年罗马尼亚革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E7%BB%B4_(%E8%8B%8F%E8%81%94)</t>
@@ -1643,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E8%92%99%E5%8F%A4%E6%B0%91%E4%B8%BB%E9%9D%A9%E5%91%BD</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>也門統一</t>
+    <t>也门统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -1673,19 +1661,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%A0%BC%E5%8B%83</t>
@@ -1703,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E6%83%85%E6%8A%A5%E5%92%8C%E5%8F%8D%E9%97%B4%E8%B0%8D%E5%B1%80</t>
@@ -1721,13 +1709,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核軍備競賽</t>
+    <t>核军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -1745,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>多米諾骨牌理論</t>
+    <t>多米诺骨牌理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
@@ -1775,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
   </si>
   <si>
-    <t>詹森主義 (外交)</t>
+    <t>詹森主义 (外交)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%88%97%E6%97%A5%E6%B6%85%E5%A4%AB%E4%B8%BB%E4%B9%89</t>
@@ -1787,19 +1775,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏布利希主義</t>
+    <t>乌布利希主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
@@ -1853,25 +1841,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
@@ -1883,13 +1871,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -1949,7 +1937,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
@@ -1973,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BB%80%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -2003,13 +1991,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -2027,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Active_measures</t>
@@ -2075,13 +2063,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%97%E5%8C%97%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>朝鮮半島南北關係</t>
+    <t>朝鲜半岛南北关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%85%8C</t>
@@ -2093,13 +2081,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E9%90%98</t>
   </si>
   <si>
-    <t>末日之鐘</t>
+    <t>末日之钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2111,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>邊緣政策</t>
+    <t>边缘政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO%E2%80%93Russia_relations</t>
@@ -2129,13 +2117,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>美蘇關係</t>
+    <t>美苏关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美蘇首腦會議列表</t>
+    <t>美苏首脑会议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_conflicts_related_to_the_Cold_War</t>
@@ -2147,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2165,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2177,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2189,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -3491,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -3549,7 +3537,7 @@
         <v>22</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -3607,7 +3595,7 @@
         <v>60</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -4996,7 +4984,7 @@
         <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5022,10 +5010,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" t="s">
         <v>155</v>
-      </c>
-      <c r="F86" t="s">
-        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -5051,10 +5039,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" t="s">
         <v>157</v>
-      </c>
-      <c r="F87" t="s">
-        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5080,10 +5068,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" t="s">
         <v>159</v>
-      </c>
-      <c r="F88" t="s">
-        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5109,10 +5097,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" t="s">
         <v>161</v>
-      </c>
-      <c r="F89" t="s">
-        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5138,10 +5126,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
         <v>163</v>
-      </c>
-      <c r="F90" t="s">
-        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5167,10 +5155,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" t="s">
         <v>165</v>
-      </c>
-      <c r="F91" t="s">
-        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5196,10 +5184,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92" t="s">
         <v>167</v>
-      </c>
-      <c r="F92" t="s">
-        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5225,10 +5213,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" t="s">
         <v>169</v>
-      </c>
-      <c r="F93" t="s">
-        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5254,10 +5242,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" t="s">
         <v>171</v>
-      </c>
-      <c r="F94" t="s">
-        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5283,10 +5271,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" t="s">
         <v>173</v>
-      </c>
-      <c r="F95" t="s">
-        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5312,10 +5300,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96" t="s">
         <v>175</v>
-      </c>
-      <c r="F96" t="s">
-        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -5341,10 +5329,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" t="s">
         <v>177</v>
-      </c>
-      <c r="F97" t="s">
-        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5370,10 +5358,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
         <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5399,10 +5387,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
         <v>181</v>
-      </c>
-      <c r="F99" t="s">
-        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5428,10 +5416,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5486,10 +5474,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5515,10 +5503,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5544,10 +5532,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5602,10 +5590,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5631,10 +5619,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5660,10 +5648,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F108" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5689,10 +5677,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F109" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5747,10 +5735,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5776,10 +5764,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5805,10 +5793,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5834,10 +5822,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5892,10 +5880,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F116" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5921,10 +5909,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F117" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5950,10 +5938,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F118" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5979,10 +5967,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F119" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6008,10 +5996,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6037,10 +6025,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6066,10 +6054,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6095,10 +6083,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6124,10 +6112,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F124" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6153,10 +6141,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6182,10 +6170,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G126" t="n">
         <v>6</v>
@@ -6211,10 +6199,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -6240,10 +6228,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6298,10 +6286,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6327,10 +6315,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -6356,10 +6344,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>156</v>
+      </c>
+      <c r="F132" t="s">
         <v>157</v>
-      </c>
-      <c r="F132" t="s">
-        <v>158</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6385,10 +6373,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6414,10 +6402,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F134" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6443,10 +6431,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F135" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6472,10 +6460,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F136" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -6501,10 +6489,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F137" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6530,10 +6518,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F138" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6559,10 +6547,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F139" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6588,10 +6576,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F140" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6617,10 +6605,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F141" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6646,10 +6634,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F142" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6675,10 +6663,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F143" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6704,10 +6692,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F144" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6733,10 +6721,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F145" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6762,10 +6750,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F146" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6791,10 +6779,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6820,10 +6808,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6849,10 +6837,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F149" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6878,10 +6866,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6907,10 +6895,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6936,10 +6924,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6965,10 +6953,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F153" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6994,10 +6982,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7023,10 +7011,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7052,10 +7040,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F156" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7081,10 +7069,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7110,10 +7098,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7139,10 +7127,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7168,10 +7156,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F160" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7197,10 +7185,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F161" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7226,10 +7214,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F162" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7255,10 +7243,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7313,10 +7301,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7342,10 +7330,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7371,10 +7359,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F167" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7400,10 +7388,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7429,10 +7417,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F169" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7458,10 +7446,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F170" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7487,10 +7475,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F171" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7516,10 +7504,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F172" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7545,10 +7533,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F173" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7574,10 +7562,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F174" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7632,10 +7620,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F176" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7661,10 +7649,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F177" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7690,10 +7678,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F178" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7719,10 +7707,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F179" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7748,10 +7736,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F180" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7777,10 +7765,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F181" t="s">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7806,10 +7794,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F182" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7835,10 +7823,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F183" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7864,10 +7852,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F184" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7893,10 +7881,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F185" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7922,10 +7910,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F186" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7951,10 +7939,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F187" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7980,10 +7968,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F188" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8009,10 +7997,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F189" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8038,10 +8026,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F190" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8067,10 +8055,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F191" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8096,10 +8084,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F192" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8125,10 +8113,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F193" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8154,10 +8142,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F194" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8183,10 +8171,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F195" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8212,10 +8200,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F196" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8241,10 +8229,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F197" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8299,10 +8287,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F199" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8328,10 +8316,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F200" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8357,10 +8345,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F201" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8386,10 +8374,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F202" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8415,10 +8403,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8444,10 +8432,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8473,10 +8461,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8502,10 +8490,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8531,10 +8519,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F207" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8560,10 +8548,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F208" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8589,10 +8577,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F209" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8618,10 +8606,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F210" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8647,10 +8635,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8676,10 +8664,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8705,10 +8693,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F213" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8734,10 +8722,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F214" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8763,10 +8751,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F215" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8792,10 +8780,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8821,10 +8809,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8850,10 +8838,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8879,10 +8867,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8908,10 +8896,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F220" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8937,10 +8925,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F221" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8966,10 +8954,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F222" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8995,10 +8983,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9024,10 +9012,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9053,10 +9041,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9082,10 +9070,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9111,10 +9099,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9140,10 +9128,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9169,10 +9157,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9198,10 +9186,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9227,10 +9215,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9256,10 +9244,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9285,10 +9273,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9314,10 +9302,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9343,10 +9331,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9372,10 +9360,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9401,10 +9389,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9430,10 +9418,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9459,10 +9447,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9488,10 +9476,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9517,10 +9505,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9546,10 +9534,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9575,10 +9563,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F243" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9604,10 +9592,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9633,10 +9621,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9662,10 +9650,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9691,10 +9679,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9720,10 +9708,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9749,10 +9737,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9778,10 +9766,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9807,10 +9795,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9836,10 +9824,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9865,10 +9853,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9894,10 +9882,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9923,10 +9911,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9952,10 +9940,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9981,10 +9969,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10010,10 +9998,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10039,10 +10027,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10068,10 +10056,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10097,10 +10085,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10126,10 +10114,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10155,10 +10143,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10184,10 +10172,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10213,10 +10201,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10242,10 +10230,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10271,10 +10259,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10300,10 +10288,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10329,10 +10317,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10358,10 +10346,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10387,10 +10375,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10416,10 +10404,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10445,10 +10433,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10474,10 +10462,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10503,10 +10491,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10532,10 +10520,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10561,10 +10549,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10590,10 +10578,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F278" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10619,10 +10607,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10648,10 +10636,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10677,10 +10665,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10706,10 +10694,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10735,10 +10723,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10764,10 +10752,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10793,10 +10781,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10822,10 +10810,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10851,10 +10839,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10880,10 +10868,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F288" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10909,10 +10897,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10938,10 +10926,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10996,10 +10984,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11025,10 +11013,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11054,10 +11042,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11083,10 +11071,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11112,10 +11100,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11141,10 +11129,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11170,10 +11158,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11199,10 +11187,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11228,10 +11216,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11257,10 +11245,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11286,10 +11274,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11315,10 +11303,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11344,10 +11332,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11373,10 +11361,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11402,10 +11390,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11431,10 +11419,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11460,10 +11448,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11489,10 +11477,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11518,10 +11506,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11547,10 +11535,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11576,10 +11564,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11605,10 +11593,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11634,10 +11622,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11663,10 +11651,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11692,10 +11680,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11721,10 +11709,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11750,10 +11738,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11779,10 +11767,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F319" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11808,10 +11796,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F320" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11837,10 +11825,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F321" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11866,10 +11854,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F322" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11895,10 +11883,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F323" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11924,10 +11912,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F324" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11953,10 +11941,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F325" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11982,10 +11970,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12011,10 +11999,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12040,10 +12028,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12069,10 +12057,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12098,10 +12086,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12127,10 +12115,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12156,10 +12144,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12185,10 +12173,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G333" t="n">
         <v>6</v>
@@ -12214,10 +12202,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12243,10 +12231,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12272,10 +12260,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12301,10 +12289,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12330,10 +12318,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F338" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12359,10 +12347,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F339" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12388,10 +12376,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F340" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12417,10 +12405,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F341" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12446,10 +12434,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F342" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12475,10 +12463,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12504,10 +12492,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12533,10 +12521,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12562,10 +12550,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F346" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12591,10 +12579,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12620,10 +12608,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12649,10 +12637,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12678,10 +12666,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12707,10 +12695,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F351" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12736,10 +12724,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F352" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12765,10 +12753,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F353" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12794,10 +12782,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F354" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12823,10 +12811,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F355" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12852,10 +12840,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F356" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12881,10 +12869,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F357" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12910,10 +12898,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F358" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12939,10 +12927,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F359" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12968,10 +12956,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F360" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12997,10 +12985,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F361" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13026,10 +13014,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F362" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13055,10 +13043,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13084,10 +13072,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13113,10 +13101,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13142,10 +13130,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F366" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13171,10 +13159,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F367" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13200,10 +13188,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F368" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13229,10 +13217,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>4</v>
@@ -13258,10 +13246,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13287,10 +13275,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13316,10 +13304,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F372" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13345,10 +13333,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13374,10 +13362,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13403,10 +13391,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F375" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13432,10 +13420,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F376" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
@@ -13461,10 +13449,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F377" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13490,10 +13478,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F378" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13519,10 +13507,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F379" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13548,10 +13536,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F380" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13577,10 +13565,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F381" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13606,10 +13594,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F382" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13635,10 +13623,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F383" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>

--- a/xlsx/华沙条约组织_intext.xlsx
+++ b/xlsx/华沙条约组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="727">
   <si>
     <t>华沙条约组织</t>
   </si>
@@ -29,7 +29,7 @@
     <t>波兰人民共和国</t>
   </si>
   <si>
-    <t>政策_政策_美國_华沙条约组织</t>
+    <t>体育运动_体育运动_苏联_华沙条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
@@ -1410,6 +1410,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -2538,7 +2544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10306,7 +10312,7 @@
         <v>500</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10335,7 +10341,7 @@
         <v>502</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10590,10 +10596,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>305</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>306</v>
+        <v>520</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10619,10 +10625,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>305</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>306</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10967,10 +10973,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
       <c r="F291" t="s">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10996,10 +11002,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>139</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>140</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11321,7 +11327,7 @@
         <v>566</v>
       </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11350,7 +11356,7 @@
         <v>568</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="s">
         <v>4</v>
@@ -11814,7 +11820,7 @@
         <v>600</v>
       </c>
       <c r="G320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320" t="s">
         <v>4</v>
@@ -11843,7 +11849,7 @@
         <v>602</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12191,7 +12197,7 @@
         <v>626</v>
       </c>
       <c r="G333" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -12220,7 +12226,7 @@
         <v>628</v>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H334" t="s">
         <v>4</v>
@@ -12707,10 +12713,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>253</v>
+        <v>661</v>
       </c>
       <c r="F351" t="s">
-        <v>254</v>
+        <v>662</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12736,10 +12742,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>661</v>
+        <v>253</v>
       </c>
       <c r="F352" t="s">
-        <v>662</v>
+        <v>254</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13235,7 +13241,7 @@
         <v>696</v>
       </c>
       <c r="G369" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -13264,7 +13270,7 @@
         <v>698</v>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H370" t="s">
         <v>4</v>
@@ -13438,7 +13444,7 @@
         <v>710</v>
       </c>
       <c r="G376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -13467,7 +13473,7 @@
         <v>712</v>
       </c>
       <c r="G377" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13647,6 +13653,35 @@
         <v>4</v>
       </c>
       <c r="I383" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>383</v>
+      </c>
+      <c r="E384" t="s">
+        <v>725</v>
+      </c>
+      <c r="F384" t="s">
+        <v>726</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
+      <c r="H384" t="s">
+        <v>4</v>
+      </c>
+      <c r="I384" t="n">
         <v>3</v>
       </c>
     </row>
